--- a/Web2Assignment2Sheet.xlsx
+++ b/Web2Assignment2Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwola586\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61C889F-0E41-4503-AD2D-E8EE90F77D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8824657B-93FF-4B35-B5C1-A17AB14E411D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6ACB699-3B61-422C-B9BB-513BF468337F}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Today's Date</t>
   </si>
@@ -74,9 +66,6 @@
     <t>Make use of media queries as design needs to be workable at mobile/desktop sizes.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colby, Jakub </t>
-  </si>
-  <si>
     <t>Milestone 3</t>
   </si>
   <si>
@@ -95,9 +84,6 @@
     <t>Milestone 4</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Milestone 5</t>
   </si>
   <si>
@@ -105,6 +91,24 @@
   </si>
   <si>
     <t xml:space="preserve">                                               </t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Colby</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Determine where JSON is stored, get used to Heroku, define what hosting will actually look like</t>
+  </si>
+  <si>
+    <t>Colby, Byron, Jakub</t>
   </si>
 </sst>
 </file>
@@ -112,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,7 +358,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,10 +370,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,7 +382,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,40 +394,40 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,13 +435,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -565,1196 +572,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1780,13 +597,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2095501</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>361951</xdr:rowOff>
@@ -1833,13 +650,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1695451</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2076451</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>419101</xdr:rowOff>
@@ -1939,13 +756,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1647826</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2009776</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>400051</xdr:rowOff>
@@ -1992,13 +809,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1724025</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2066925</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
@@ -2283,13 +1100,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>111432</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>437101</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>465667</xdr:rowOff>
@@ -2344,13 +1161,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>836084</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1629834</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>391584</xdr:rowOff>
@@ -2407,6 +1224,73 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Jakub</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1492250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6331A83B-8DE0-4FB3-BE64-9A5E55E42C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7821083" y="783167"/>
+          <a:ext cx="730250" cy="275167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Byron</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2713,60 +1597,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E088102-CE2F-428A-B37D-76D489C70689}">
-  <dimension ref="B1:P30"/>
+  <dimension ref="B1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="8" width="32.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
+    <col min="3" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:17" ht="24" customHeight="1">
       <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="2:17" ht="22.5" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="2:17" ht="39.75" customHeight="1">
       <c r="B4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43779</v>
+        <v>43787</v>
       </c>
       <c r="C4" s="25">
-        <f>SUM(H8:H30)</f>
+        <f>SUM(I8:I31)</f>
         <v>0</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="28"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="2:17" ht="15" customHeight="1">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="33.75" customHeight="1">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
@@ -2776,20 +1664,21 @@
       <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="16.5" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
@@ -2798,17 +1687,18 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" ht="49.5" customHeight="1">
       <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
@@ -2818,313 +1708,360 @@
       <c r="D8" s="15">
         <v>43783</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
         <v>43785</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="2:16" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="6"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:17" ht="108.75" customHeight="1">
       <c r="B10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="15">
         <v>43790</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15">
         <v>43791</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="27">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="2:17" ht="78.75" customHeight="1">
+      <c r="B11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="15">
+        <v>43790</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15">
+        <v>43791</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="78.75" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15">
+        <v>43789</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="15">
+        <v>43789</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19">
-        <v>43790</v>
-      </c>
-      <c r="E11" s="19">
-        <v>43791</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="16"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="17"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="17"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="17"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="17"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="17"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="17"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="17"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="17"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="17"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="17"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="17"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="17"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="17"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="17"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="24"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:G13 G15:G30">
+  <conditionalFormatting sqref="H8:H14 H16:H31">
     <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",G8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",H8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="In-Progress">
-      <formula>NOT(ISERROR(SEARCH("In-Progress",G8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In-Progress",H8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",G8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Started",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="H15">
     <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",G14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",H15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="In-Progress">
-      <formula>NOT(ISERROR(SEARCH("In-Progress",G14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In-Progress",H15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",G14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Started",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10:D11 D13 D15:D30">
+  <conditionalFormatting sqref="D8:E8 D14:E14 D16:E31 D10:E12">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
       <formula>TODAY() + 2</formula>
       <formula>TODAY() + 6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10:D11 D13 D15:D30">
+  <conditionalFormatting sqref="D8:E8 D14:E14 D16:E31 D10:E12">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>TODAY()+2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8 E10:E11 E13 E15:E30">
+  <conditionalFormatting sqref="F8 F14 F16:F31 F10:F12">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>TODAY() + 2</formula>
       <formula>TODAY() + 6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8 E10:E11 E13 E15:E30">
+  <conditionalFormatting sqref="F8 F14 F16:F31 F10:F12">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>TODAY() + 2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8 E10:E11 E13 E15:E30">
+  <conditionalFormatting sqref="F8 F14 F16:F31 F10:F12">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>TODAY() + 6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D10:D11 D13 D15:D30">
+  <conditionalFormatting sqref="D8:E8 D14:E14 D16:E31 D10:E12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>TODAY() + 6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8 D10:E11 D13:E13 D15:E30">
+  <conditionalFormatting sqref="D8:F8 D14:F14 D16:F31 D10:F12">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(D8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G29" xr:uid="{D1C22AD1-F0A3-4AF5-9849-DAFD7F31A120}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H30" xr:uid="{D1C22AD1-F0A3-4AF5-9849-DAFD7F31A120}">
       <formula1>"Not Started, In-Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Web2Assignment2Sheet.xlsx
+++ b/Web2Assignment2Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwola586\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppin\htdocs\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8824657B-93FF-4B35-B5C1-A17AB14E411D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC26923B-01E9-48F3-81DF-91B4F4E545C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6ACB699-3B61-422C-B9BB-513BF468337F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6ACB699-3B61-422C-B9BB-513BF468337F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Today's Date</t>
   </si>
@@ -94,9 +100,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>In-Progress</t>
   </si>
   <si>
     <t>Colby</t>
@@ -119,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +428,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,9 +441,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1599,11 +1602,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E088102-CE2F-428A-B37D-76D489C70689}">
   <dimension ref="B1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
@@ -1611,17 +1614,17 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="6.75" customHeight="1"/>
-    <row r="2" spans="2:17" ht="24" customHeight="1">
-      <c r="B2" s="33" t="s">
+    <row r="1" spans="2:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="2:17" ht="22.5" customHeight="1">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1631,13 +1634,13 @@
       <c r="D3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="2:17" ht="39.75" customHeight="1">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43787</v>
+        <v>43789</v>
       </c>
       <c r="C4" s="25">
         <f>SUM(I8:I31)</f>
@@ -1650,11 +1653,11 @@
       <c r="F4" s="28"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="2:17" ht="15" customHeight="1">
+    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="2:17" ht="33.75" customHeight="1">
+    <row r="6" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="16.5" customHeight="1">
+    <row r="7" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
@@ -1698,7 +1701,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="2:17" ht="49.5" customHeight="1">
+    <row r="8" spans="2:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>43785</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>22</v>
@@ -1722,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
@@ -1734,7 +1737,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="2:17" ht="108.75" customHeight="1">
+    <row r="10" spans="2:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
@@ -1748,15 +1751,17 @@
       <c r="F10" s="15">
         <v>43791</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="78.75" customHeight="1">
+    <row r="11" spans="2:17" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
@@ -1770,20 +1775,22 @@
       <c r="F11" s="15">
         <v>43791</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="H11" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="78.75" customHeight="1">
+    <row r="12" spans="2:17" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="15">
         <v>43789</v>
@@ -1793,16 +1800,16 @@
         <v>43789</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
@@ -1814,7 +1821,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="19"/>
@@ -1824,7 +1831,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
@@ -1836,7 +1843,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="19"/>
@@ -1846,7 +1853,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="19"/>
@@ -1856,7 +1863,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="19"/>
@@ -1866,7 +1873,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="19"/>
@@ -1876,7 +1883,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="19"/>
@@ -1886,7 +1893,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="19"/>
@@ -1896,7 +1903,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
@@ -1906,7 +1913,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
@@ -1916,7 +1923,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
@@ -1926,7 +1933,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
@@ -1936,7 +1943,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
@@ -1946,7 +1953,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
@@ -1956,7 +1963,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="19"/>
@@ -1966,7 +1973,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="19"/>
@@ -1976,7 +1983,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="19"/>
@@ -1986,7 +1993,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="20"/>

--- a/Web2Assignment2Sheet.xlsx
+++ b/Web2Assignment2Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppin\htdocs\assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakub Wolak\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC26923B-01E9-48F3-81DF-91B4F4E545C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4DDE848-4CA8-407F-A36B-DB1241672EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6ACB699-3B61-422C-B9BB-513BF468337F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6ACB699-3B61-422C-B9BB-513BF468337F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Today's Date</t>
   </si>
@@ -112,6 +114,66 @@
   </si>
   <si>
     <t>Colby, Byron, Jakub</t>
+  </si>
+  <si>
+    <t>Login/Register/User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the function of being able to login and register. </t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Milestone 6</t>
+  </si>
+  <si>
+    <t>Byron, Jakub</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Colby + Assistance</t>
+  </si>
+  <si>
+    <t>Country/City/Photo PHP Pages + Photos in DB</t>
+  </si>
+  <si>
+    <t>Complete the country, city, and photo php pages, as well as place photos in database.</t>
+  </si>
+  <si>
+    <t>Milestone 7</t>
+  </si>
+  <si>
+    <t>Search/Browse, Favourites, Uploads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the search/browse funciton, favourites, as well as uploads.  </t>
+  </si>
+  <si>
+    <t>Home, Profile Page, About Page</t>
+  </si>
+  <si>
+    <t>Home, profile, and about page should be done completely.</t>
+  </si>
+  <si>
+    <t>Milestone 8</t>
+  </si>
+  <si>
+    <t>Database/Design</t>
+  </si>
+  <si>
+    <t>Finish off the database and add finishing touches to design.</t>
+  </si>
+  <si>
+    <t>Milestone 9</t>
+  </si>
+  <si>
+    <t>Testing/Submission</t>
+  </si>
+  <si>
+    <t>Final Testing and Submission of assignment</t>
   </si>
 </sst>
 </file>
@@ -351,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,11 +505,254 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1602,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E088102-CE2F-428A-B37D-76D489C70689}">
   <dimension ref="B1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,11 +1945,11 @@
     <row r="4" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f ca="1">TODAY()</f>
-        <v>43789</v>
+        <v>43791</v>
       </c>
       <c r="C4" s="25">
         <f>SUM(I8:I31)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>21</v>
@@ -1722,7 +2027,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -1758,7 +2063,7 @@
         <v>22</v>
       </c>
       <c r="I10" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1782,7 +2087,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,7 +2111,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -1821,14 +2126,26 @@
       <c r="H13" s="6"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
+    <row r="14" spans="2:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19">
+        <v>43796</v>
+      </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="F14" s="19">
+        <v>43797</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -1843,105 +2160,165 @@
       <c r="H15" s="6"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
+    <row r="16" spans="2:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="19">
+        <v>43798</v>
+      </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="19">
+        <v>43799</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="19"/>
+      <c r="B17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="19">
+        <v>43801</v>
+      </c>
       <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="19">
+        <v>43802</v>
+      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="19"/>
+      <c r="B19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="19">
+        <v>43803</v>
+      </c>
       <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="F20" s="19">
+        <v>43804</v>
+      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="19"/>
+      <c r="B21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="19">
+        <v>43805</v>
+      </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19">
+        <v>43806</v>
+      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="19"/>
+      <c r="B23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="19">
+        <v>43807</v>
+      </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>43808</v>
+      </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
@@ -2008,63 +2385,118 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:H14 H16:H31">
-    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="Completed">
+  <conditionalFormatting sqref="H8:H14 H16 H18 H20 H22 H24 H26:H31">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="In-Progress">
+    <cfRule type="containsText" dxfId="35" priority="38" operator="containsText" text="In-Progress">
       <formula>NOT(ISERROR(SEARCH("In-Progress",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="In-Progress">
+    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="In-Progress">
       <formula>NOT(ISERROR(SEARCH("In-Progress",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8 D14:E14 D16:E31 D10:E12">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
+  <conditionalFormatting sqref="D8:E8 D14:E14 D16:E16 D10:E12 D18:E18 D20:E20 D22:E22 D24:E24 D26:E31">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="between">
       <formula>TODAY() + 2</formula>
       <formula>TODAY() + 6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8 D14:E14 D16:E31 D10:E12">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="D8:E8 D14:E14 D16:E16 D10:E12 D18:E18 D20:E20 D22:E22 D24:E24 D26:E31">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="lessThan">
       <formula>TODAY()+2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 F14 F16:F31 F10:F12">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+  <conditionalFormatting sqref="F8 F14 F16 F10:F12 F18 F20 F22 F24 F26:F31">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="between">
       <formula>TODAY() + 2</formula>
       <formula>TODAY() + 6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 F14 F16:F31 F10:F12">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="F8 F14 F16 F10:F12 F18 F20 F22 F24 F26:F31">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="lessThan">
       <formula>TODAY() + 2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 F14 F16:F31 F10:F12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="F8 F14 F16 F10:F12 F18 F20 F22 F24 F26:F31">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="greaterThan">
       <formula>TODAY() + 6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8 D14:E14 D16:E31 D10:E12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D8:E8 D14:E14 D16:E16 D10:E12 D18:E18 D20:E20 D22:E22 D24:E24 D26:E31">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="greaterThan">
       <formula>TODAY() + 6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F8 D14:F14 D16:F31 D10:F12">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="D8:F8 D14:F14 D16:F16 D10:F12 D18:F18 D20:F20 D22:F22 D24:F24 D26:F31">
+    <cfRule type="containsBlanks" dxfId="24" priority="16">
       <formula>LEN(TRIM(D8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",H17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH("In-Progress",H17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",H17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH("In-Progress",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",H19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH("In-Progress",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",H23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH("In-Progress",H23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",H23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",H25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH("In-Progress",H25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
